--- a/02-Exercices/01-MERISE/Exo_botoutou/exo_dictionnaire_botoutou.xlsx
+++ b/02-Exercices/01-MERISE/Exo_botoutou/exo_dictionnaire_botoutou.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$3:$L$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$B$2:$L$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -54,15 +55,9 @@
     <t>type + longueur données</t>
   </si>
   <si>
-    <t>entier/chaîne(xx)/date/booléen</t>
-  </si>
-  <si>
     <t>commentaire invariable</t>
   </si>
   <si>
-    <t>facture/bon livraison-commande</t>
-  </si>
-  <si>
     <t>règle calcul</t>
   </si>
   <si>
@@ -103,9 +98,6 @@
   </si>
   <si>
     <t>Entité</t>
-  </si>
-  <si>
-    <t>MLD*</t>
   </si>
   <si>
     <t>élementaire/paramètre/calculé</t>
@@ -331,6 +323,15 @@
   </si>
   <si>
     <t>classement</t>
+  </si>
+  <si>
+    <t>MLD**</t>
+  </si>
+  <si>
+    <t>entier/chaîne(xx)/date/booléen…</t>
+  </si>
+  <si>
+    <t>facture/bon livraison…</t>
   </si>
 </sst>
 </file>
@@ -379,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,6 +529,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,15 +548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,42 +856,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -912,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
@@ -924,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
@@ -933,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -947,755 +938,747 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
-        <v>4</v>
+      <c r="B9" s="11">
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>5</v>
+      <c r="B10" s="11">
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
-        <v>6</v>
+      <c r="B11" s="11">
+        <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
-        <v>9</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
-        <v>10</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>12</v>
+      <c r="B17" s="11">
+        <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
-        <v>13</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
-        <v>15</v>
+      <c r="B20" s="11">
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
-        <v>16</v>
+      <c r="B21" s="11">
+        <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
-        <v>17</v>
+      <c r="B22" s="11">
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
-        <v>18</v>
+      <c r="B23" s="11">
+        <v>16</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
-        <v>19</v>
+      <c r="B24" s="11">
+        <v>17</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <v>20</v>
+      <c r="B25" s="11">
+        <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
-        <v>21</v>
+      <c r="B26" s="11">
+        <v>19</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <v>22</v>
+      <c r="B27" s="11">
+        <v>20</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <v>22</v>
+      <c r="B28" s="11">
+        <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
-        <v>24</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
-        <v>25</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19" t="s">
-        <v>95</v>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1704,8 +1687,8 @@
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:L5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
